--- a/public/schedule_template.xlsx
+++ b/public/schedule_template.xlsx
@@ -1392,8 +1392,8 @@
   <sheetPr/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1"/>

--- a/public/schedule_template.xlsx
+++ b/public/schedule_template.xlsx
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="G22" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1"/>
@@ -1480,10 +1480,7 @@
       <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J5">
-        <f ca="1">CELL("width",B5)</f>
-        <v>61</v>
-      </c>
+      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
